--- a/topic_7_img/example.xlsx
+++ b/topic_7_img/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27030"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u167856\Dropbox\UPF\managerial_accounting\2023-2024\Slides\topic_7_img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D8D5DC-D29D-44D8-A91D-720F92D9A106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{B9D8D5DC-D29D-44D8-A91D-720F92D9A106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E1E1A29-E891-4019-BC5D-1A9FEAB6B034}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5C6C112-0AB6-43A7-8B8E-9409AF4D06AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{C5C6C112-0AB6-43A7-8B8E-9409AF4D06AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
+  <si>
+    <t>Information:</t>
+  </si>
   <si>
     <t>Basic</t>
   </si>
@@ -60,18 +63,39 @@
     <t>?</t>
   </si>
   <si>
+    <t>Number of units</t>
+  </si>
+  <si>
+    <t>Direct labor hr per product</t>
+  </si>
+  <si>
+    <t>Solution:</t>
+  </si>
+  <si>
+    <t>The company determines the overhead rate based on direct labor hours</t>
+  </si>
+  <si>
     <t>STEP 1</t>
   </si>
   <si>
     <t>Total Overhead Costs</t>
   </si>
   <si>
+    <t>Total Direct Labor hours</t>
+  </si>
+  <si>
+    <t>hrs</t>
+  </si>
+  <si>
     <t>STEP 2</t>
   </si>
   <si>
     <t>Overhead rate</t>
   </si>
   <si>
+    <t>per hr</t>
+  </si>
+  <si>
     <t>STEP 3</t>
   </si>
   <si>
@@ -81,6 +105,9 @@
     <t>Direct Labor hours per product</t>
   </si>
   <si>
+    <t>(estimated)</t>
+  </si>
+  <si>
     <t>Overhead rate per direct labor hour</t>
   </si>
   <si>
@@ -90,7 +117,7 @@
     <t>Number Units</t>
   </si>
   <si>
-    <t>(estimated)</t>
+    <t>Overhead per unit</t>
   </si>
   <si>
     <t>Direct Materials per unit</t>
@@ -99,9 +126,6 @@
     <t>Direct Labor per unit</t>
   </si>
   <si>
-    <t>Overhead per unit</t>
-  </si>
-  <si>
     <t>Cost per unit</t>
   </si>
   <si>
@@ -120,6 +144,18 @@
     <t>Gross profit per unit</t>
   </si>
   <si>
+    <t>Conclusion:</t>
+  </si>
+  <si>
+    <t>1) The basic mixer is the less profitable product, indeed it is the second product with the highest cost per unit and the lowest in term of selling price.</t>
+  </si>
+  <si>
+    <t>2) relative to the other products, its high cost is driven mainly by direct labor.</t>
+  </si>
+  <si>
+    <t>4) it also absorbs a lot of the overhead costs: large direct labor cost distributed among not so many  units produced</t>
+  </si>
+  <si>
     <t>Total Overhead Cost</t>
   </si>
   <si>
@@ -150,6 +186,9 @@
     <t>Step 3</t>
   </si>
   <si>
+    <t>Expected Activities</t>
+  </si>
+  <si>
     <t>Cost drivers</t>
   </si>
   <si>
@@ -174,6 +213,9 @@
     <t>Step 4</t>
   </si>
   <si>
+    <t>Compute the overhead ABC rate for each cost pool. </t>
+  </si>
+  <si>
     <t>Cost driver</t>
   </si>
   <si>
@@ -192,55 +234,10 @@
     <t>Total Overhead</t>
   </si>
   <si>
-    <t>Solution:</t>
-  </si>
-  <si>
-    <t>Information:</t>
-  </si>
-  <si>
-    <t>The company determines the overhead rate based on direct labor hours</t>
-  </si>
-  <si>
-    <t>hrs</t>
-  </si>
-  <si>
-    <t>per hr</t>
-  </si>
-  <si>
-    <t>Direct labor hr per product</t>
-  </si>
-  <si>
-    <t>Number of units</t>
-  </si>
-  <si>
-    <t>Conclusion:</t>
-  </si>
-  <si>
-    <t>1) The basic mixer is the less profitable product, indeed it is the second product with the highest cost per unit and the lowest in term of selling price.</t>
-  </si>
-  <si>
-    <t>2) relative to the other products, its high cost is driven mainly by direct labor.</t>
-  </si>
-  <si>
-    <t>4) it also absorbs a lot of the overhead cost: relatively large direct labor cost distributed among not so many  units produced</t>
-  </si>
-  <si>
-    <t>Total Direct Labor hours</t>
-  </si>
-  <si>
-    <t>Expected Activities</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) This analysis revealed that the Basic Mixer generates a loss for every unit sold. </t>
   </si>
   <si>
     <t>2) So, it is of absolutely important to increase its sale price or improve cost efficiency.</t>
-  </si>
-  <si>
-    <t>Overhead assignment</t>
-  </si>
-  <si>
-    <t>Compute the overhead ABC rate for each cost pool. </t>
   </si>
 </sst>
 </file>
@@ -248,15 +245,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-[$€-2]\ * #,##0_-;\-[$€-2]\ * #,##0_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-[$€-2]\ * #,##0_-;\-[$€-2]\ * #,##0_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,43 +516,40 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -573,75 +567,81 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1217,41 +1217,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E75A60E-6398-4610-A4FD-9EB929016D27}">
   <dimension ref="A11:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="24" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="20"/>
+      <c r="C12" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+      <c r="E12" s="24" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="21" t="s">
+        <v>4</v>
       </c>
       <c r="C13" s="12">
         <v>3.5</v>
@@ -1263,9 +1263,9 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
-        <v>4</v>
+    <row r="14" spans="1:5">
+      <c r="B14" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="C14" s="12">
         <v>10</v>
@@ -1277,274 +1277,277 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
-        <v>5</v>
+    <row r="15" spans="1:5">
+      <c r="B15" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.45">
+      <c r="B16" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="41">
         <v>140000</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="41">
         <v>100000</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="42">
         <v>250000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="45">
+    <row r="17" spans="1:7" ht="14.45">
+      <c r="B17" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="44">
         <v>350000</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="44">
         <v>400000</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="45">
         <v>500000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4">
         <v>2500000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="B24" s="10" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C24" s="11">
         <v>1250000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C26" s="17">
         <f>C23/C24</f>
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="30">
+      <c r="E29" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15">
+      <c r="B30" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="70">
         <f>+C17</f>
         <v>350000</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="29">
         <f>+D17</f>
         <v>400000</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="29">
         <f>+E17</f>
         <v>500000</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="30">
         <f>SUM(C30:E30)</f>
         <v>1250000</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="31">
         <f>$C$26</f>
         <v>2</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="31">
         <f t="shared" ref="D31:F31" si="0">$C$26</f>
         <v>2</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="32">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="34">
+    <row r="32" spans="1:7">
+      <c r="B32" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="33">
         <f>C31*C30</f>
         <v>700000</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="33">
         <f t="shared" ref="D32:F33" si="1">D31*D30</f>
         <v>800000</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="33">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="34">
         <f t="shared" si="1"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="36">
+    <row r="33" spans="1:7">
+      <c r="B33" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="35">
+        <f>C16</f>
         <v>140000</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="35">
+        <f t="shared" ref="D33:E33" si="2">D16</f>
         <v>100000</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="35">
+        <f t="shared" si="2"/>
         <v>250000</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="36">
         <f t="shared" si="1"/>
         <v>5000000</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="38">
         <f>C32/C33</f>
         <v>5</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D34" s="38">
         <f>D32/D33</f>
         <v>8</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="38">
         <f>E32/E33</f>
         <v>4</v>
       </c>
-      <c r="F34" s="40"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="48"/>
-      <c r="C36" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="27" t="s">
+      <c r="F34" s="39"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="47"/>
+      <c r="C36" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="D36" s="26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="29" t="s">
-        <v>18</v>
+      <c r="E36" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" ref="C37:E38" si="2">C13</f>
+        <f t="shared" ref="C37:E38" si="3">C13</f>
         <v>3.5</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="E37" s="49">
-        <f t="shared" si="2"/>
+      <c r="E37" s="48">
+        <f t="shared" si="3"/>
         <v>11.7</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="29" t="s">
-        <v>19</v>
+    <row r="38" spans="1:7">
+      <c r="B38" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.75</v>
       </c>
-      <c r="E38" s="49">
-        <f t="shared" si="2"/>
+      <c r="E38" s="48">
+        <f t="shared" si="3"/>
         <v>4.3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="52" t="s">
-        <v>20</v>
+    <row r="39" spans="1:7" ht="14.45" thickBot="1">
+      <c r="B39" s="51" t="s">
+        <v>26</v>
       </c>
       <c r="C39" s="6">
         <f>+C34</f>
@@ -1554,14 +1557,14 @@
         <f>+D34</f>
         <v>8</v>
       </c>
-      <c r="E39" s="50">
+      <c r="E39" s="49">
         <f>+E34</f>
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="53" t="s">
-        <v>21</v>
+    <row r="40" spans="1:7" ht="14.45" thickTop="1">
+      <c r="B40" s="52" t="s">
+        <v>29</v>
       </c>
       <c r="C40" s="7">
         <f>SUM(C37:C39)</f>
@@ -1571,34 +1574,34 @@
         <f>SUM(D37:D39)</f>
         <v>16.75</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="50">
         <f>SUM(E37:E39)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="B44" s="19"/>
-      <c r="C44" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="20" t="s">
+      <c r="C44" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="D44" s="69" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E44" s="69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="B45" s="19" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C45" s="5">
         <v>20</v>
@@ -1610,56 +1613,56 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="54" t="s">
-        <v>25</v>
+    <row r="46" spans="1:7" ht="14.45" thickBot="1">
+      <c r="B46" s="53" t="s">
+        <v>33</v>
       </c>
       <c r="C46" s="8">
         <f>+C40</f>
         <v>18.5</v>
       </c>
       <c r="D46" s="8">
-        <f t="shared" ref="D46:E46" si="3">+D40</f>
+        <f t="shared" ref="D46:E46" si="4">+D40</f>
         <v>16.75</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="55" t="s">
-        <v>26</v>
+    <row r="47" spans="1:7" ht="14.45" thickTop="1">
+      <c r="B47" s="54" t="s">
+        <v>34</v>
       </c>
       <c r="C47" s="9">
         <f>C45-C46</f>
         <v>1.5</v>
       </c>
       <c r="D47" s="9">
-        <f t="shared" ref="D47:E47" si="4">D45-D46</f>
+        <f t="shared" ref="D47:E47" si="5">D45-D46</f>
         <v>8.25</v>
       </c>
       <c r="E47" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="B51" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="B52" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1673,128 +1676,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958277E-7676-4169-AFE5-207728478A89}">
   <dimension ref="A11:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="C13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="64">
+        <v>39</v>
+      </c>
+      <c r="D13" s="63">
         <f>+Traditional!C23</f>
         <v>2500000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="C16" s="19" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4">
         <v>200000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="C17" s="19" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D17" s="4">
         <v>500000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="C18" s="19" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D18" s="4">
         <v>300000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="C19" s="19" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D19" s="4">
         <v>600000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="54" t="s">
-        <v>35</v>
+    <row r="20" spans="1:7" ht="14.45" thickBot="1">
+      <c r="C20" s="53" t="s">
+        <v>47</v>
       </c>
       <c r="D20" s="6">
         <v>900000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.45" thickTop="1">
       <c r="C21" s="19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4">
         <f>SUM(D16:D20)</f>
         <v>2500000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="B25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="69"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="C26" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="E26" s="69" t="s">
         <v>2</v>
       </c>
+      <c r="F26" s="69" t="s">
+        <v>3</v>
+      </c>
       <c r="G26" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="C27" s="19" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D27" s="18">
         <v>2000</v>
@@ -1810,9 +1813,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="C28" s="19" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D28" s="18">
         <v>5000</v>
@@ -1828,9 +1831,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="C29" s="19" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D29" s="18">
         <v>10000</v>
@@ -1846,9 +1849,9 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="C30" s="19" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D30" s="18">
         <v>15000</v>
@@ -1864,9 +1867,9 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="C31" s="19" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D31" s="18">
         <v>80000</v>
@@ -1882,42 +1885,42 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="C35" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>38</v>
-      </c>
       <c r="G35" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
       <c r="C36" s="19" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E36" s="4">
         <f>+D16</f>
@@ -1927,17 +1930,17 @@
         <f>+G27</f>
         <v>5000</v>
       </c>
-      <c r="G36" s="57">
+      <c r="G36" s="56">
         <f>E36/F36</f>
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7">
       <c r="C37" s="19" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" ref="E37:E41" si="1">+D17</f>
@@ -1947,17 +1950,17 @@
         <f>+G28</f>
         <v>10000</v>
       </c>
-      <c r="G37" s="57">
+      <c r="G37" s="56">
         <f t="shared" ref="G37:G40" si="2">E37/F37</f>
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7">
       <c r="C38" s="19" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="1"/>
@@ -1967,54 +1970,54 @@
         <f>+G29</f>
         <v>20000</v>
       </c>
-      <c r="G38" s="57">
+      <c r="G38" s="56">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7">
       <c r="C39" s="19" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="35">
         <f>+G30</f>
         <v>30000</v>
       </c>
-      <c r="G39" s="61">
+      <c r="G39" s="60">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="54" t="s">
-        <v>43</v>
+    <row r="40" spans="2:7" ht="14.45" thickBot="1">
+      <c r="C40" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>56</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" si="1"/>
         <v>900000</v>
       </c>
-      <c r="F40" s="62">
+      <c r="F40" s="61">
         <f>+G31</f>
         <v>150000</v>
       </c>
-      <c r="G40" s="63">
+      <c r="G40" s="62">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="14.45" thickTop="1">
       <c r="C41" s="19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="4">
@@ -2022,269 +2025,269 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7">
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="47"/>
-      <c r="D45" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="20"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="C45" s="46"/>
+      <c r="D45" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="69"/>
+    </row>
+    <row r="46" spans="2:7">
       <c r="C46" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="E46" s="69" t="s">
         <v>2</v>
       </c>
+      <c r="F46" s="69" t="s">
+        <v>3</v>
+      </c>
       <c r="G46" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
       <c r="C47" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="58">
+        <v>52</v>
+      </c>
+      <c r="D47" s="57">
         <f>+D27*$G36</f>
         <v>80000</v>
       </c>
-      <c r="E47" s="58">
-        <f t="shared" ref="E47:F47" si="3">+E27*$G36</f>
+      <c r="E47" s="57">
+        <f>+E27*$G36</f>
         <v>60000</v>
       </c>
-      <c r="F47" s="58">
-        <f t="shared" si="3"/>
+      <c r="F47" s="57">
+        <f t="shared" ref="E47:F47" si="3">+F27*$G36</f>
         <v>60000</v>
       </c>
-      <c r="G47" s="58">
+      <c r="G47" s="57">
         <f>SUM(D47:F47)</f>
         <v>200000</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7">
       <c r="C48" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="58">
+        <v>53</v>
+      </c>
+      <c r="D48" s="57">
         <f t="shared" ref="D48:F48" si="4">+D28*$G37</f>
         <v>250000</v>
       </c>
-      <c r="E48" s="58">
+      <c r="E48" s="57">
         <f t="shared" si="4"/>
         <v>200000</v>
       </c>
-      <c r="F48" s="58">
+      <c r="F48" s="57">
         <f t="shared" si="4"/>
         <v>50000</v>
       </c>
-      <c r="G48" s="58">
+      <c r="G48" s="57">
         <f t="shared" ref="G48:G51" si="5">SUM(D48:F48)</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7">
       <c r="C49" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="58">
+        <v>54</v>
+      </c>
+      <c r="D49" s="57">
         <f t="shared" ref="D49:F49" si="6">+D29*$G38</f>
         <v>150000</v>
       </c>
-      <c r="E49" s="58">
+      <c r="E49" s="57">
         <f>+E29*$G38</f>
         <v>135000</v>
       </c>
-      <c r="F49" s="58">
+      <c r="F49" s="57">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
-      <c r="G49" s="58">
+      <c r="G49" s="57">
         <f t="shared" si="5"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7">
       <c r="C50" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="58">
+        <v>55</v>
+      </c>
+      <c r="D50" s="57">
         <f t="shared" ref="D50:F50" si="7">+D30*$G39</f>
         <v>300000</v>
       </c>
-      <c r="E50" s="58">
+      <c r="E50" s="57">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="F50" s="58">
+      <c r="F50" s="57">
         <f t="shared" si="7"/>
         <v>240000</v>
       </c>
-      <c r="G50" s="58">
+      <c r="G50" s="57">
         <f t="shared" si="5"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="59">
+    <row r="51" spans="2:7" ht="14.45" thickBot="1">
+      <c r="C51" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="58">
         <f t="shared" ref="D51:E51" si="8">+D31*$G40</f>
         <v>480000</v>
       </c>
-      <c r="E51" s="59">
+      <c r="E51" s="58">
         <f t="shared" si="8"/>
         <v>360000</v>
       </c>
-      <c r="F51" s="59">
+      <c r="F51" s="58">
         <f>+F31*$G40</f>
         <v>60000</v>
       </c>
-      <c r="G51" s="59">
+      <c r="G51" s="58">
         <f t="shared" si="5"/>
         <v>900000</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" ht="14.45" thickTop="1">
       <c r="C52" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="60">
+        <v>64</v>
+      </c>
+      <c r="D52" s="59">
         <f>SUM(D47:D51)</f>
         <v>1260000</v>
       </c>
-      <c r="E52" s="60">
+      <c r="E52" s="59">
         <f t="shared" ref="E52:G52" si="9">SUM(E47:E51)</f>
         <v>815000</v>
       </c>
-      <c r="F52" s="60">
+      <c r="F52" s="59">
         <f t="shared" si="9"/>
         <v>425000</v>
       </c>
-      <c r="G52" s="60">
+      <c r="G52" s="59">
         <f t="shared" si="9"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="47"/>
-      <c r="D55" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="20" t="s">
+    <row r="55" spans="2:7">
+      <c r="C55" s="46"/>
+      <c r="D55" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="E55" s="69" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F55" s="69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
       <c r="C56" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="67">
+        <v>27</v>
+      </c>
+      <c r="D56" s="66">
         <f>+Traditional!C37</f>
         <v>3.5</v>
       </c>
-      <c r="E56" s="67">
+      <c r="E56" s="66">
         <f>+Traditional!D37</f>
         <v>6</v>
       </c>
-      <c r="F56" s="67">
+      <c r="F56" s="66">
         <f>+Traditional!E37</f>
         <v>11.7</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7">
       <c r="C57" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="67">
+        <v>28</v>
+      </c>
+      <c r="D57" s="66">
         <f>+Traditional!C38</f>
         <v>10</v>
       </c>
-      <c r="E57" s="67">
+      <c r="E57" s="66">
         <f>+Traditional!D38</f>
         <v>2.75</v>
       </c>
-      <c r="F57" s="67">
+      <c r="F57" s="66">
         <f>+Traditional!E38</f>
         <v>4.3</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="68">
+    <row r="58" spans="2:7" ht="14.45" thickBot="1">
+      <c r="C58" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="67">
         <f>+D52/Traditional!C33</f>
         <v>9</v>
       </c>
-      <c r="E58" s="68">
+      <c r="E58" s="67">
         <f>+E52/Traditional!D33</f>
         <v>8.15</v>
       </c>
-      <c r="F58" s="68">
+      <c r="F58" s="67">
         <f>+F52/Traditional!E33</f>
         <v>1.7</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="69">
+    <row r="59" spans="2:7" ht="14.45" thickTop="1">
+      <c r="C59" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="68">
         <f>SUM(D56:D58)</f>
         <v>22.5</v>
       </c>
-      <c r="E59" s="69">
+      <c r="E59" s="68">
         <f>SUM(E56:E58)</f>
         <v>16.899999999999999</v>
       </c>
-      <c r="F59" s="69">
+      <c r="F59" s="68">
         <f>SUM(F56:F58)</f>
         <v>17.7</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7">
       <c r="B62" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
       <c r="C63" s="19"/>
-      <c r="D63" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="20" t="s">
+      <c r="D63" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="E63" s="69" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F63" s="69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
       <c r="C64" s="19" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D64" s="5">
         <v>20</v>
@@ -2296,9 +2299,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="54" t="s">
-        <v>25</v>
+    <row r="65" spans="2:6" ht="14.45" thickBot="1">
+      <c r="C65" s="53" t="s">
+        <v>33</v>
       </c>
       <c r="D65" s="8">
         <f>+D59</f>
@@ -2313,11 +2316,11 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="56">
+    <row r="66" spans="2:6" ht="14.45" thickTop="1">
+      <c r="C66" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="55">
         <f>D64-D65</f>
         <v>-2.5</v>
       </c>
@@ -2330,20 +2333,20 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6">
       <c r="B69" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69" s="66"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C69" s="65"/>
+    </row>
+    <row r="70" spans="2:6">
       <c r="C70" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
       <c r="C71" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
